--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>L140</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>d47</t>
+  </si>
+  <si>
+    <t>L140_skd</t>
   </si>
 </sst>
 </file>
@@ -353,104 +356,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="1" customWidth="1"/>
-    <col min="4" max="11" width="9.140625" style="1"/>
+    <col min="1" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
+    <col min="5" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>351251781555747</v>
+      </c>
+      <c r="C2" s="2">
         <v>357559441321522</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>350954042139687</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>351251781055581</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
         <v>350954042139489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>350053610784089</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>350053610711348</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>351251781556588</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>351251781556786</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>351251781247642</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>351251781247600</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>351251781247360</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>351251781332766</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>351251781055722</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>351251781055680</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>351251781024686</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>351251781247584</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>351251781557321</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>351251781556927</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>351251781556885</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>351251781556562</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>351251781753946</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>351251781333129</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>351251781333087</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>351251781358365</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>351251781556661</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>351251781333020</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>351251781356641</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>351251781247469</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,6 +385,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>350053612061205</v>
+      </c>
       <c r="B2" s="1">
         <v>351251781555747</v>
       </c>
@@ -396,6 +399,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>350053612166624</v>
+      </c>
       <c r="B3" s="1">
         <v>351251781055581</v>
       </c>
@@ -512,16 +518,6 @@
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>351251781333020</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>351251781356641</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>351251781247469</v>
       </c>
     </row>
   </sheetData>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>L140</t>
   </si>
@@ -31,13 +31,25 @@
   </si>
   <si>
     <t>L140_skd</t>
+  </si>
+  <si>
+    <t>D47_SKD</t>
+  </si>
+  <si>
+    <t>BL120_Skd</t>
+  </si>
+  <si>
+    <t>bl96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +59,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,10 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,21 +376,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
-    <col min="5" max="12" width="9.140625" style="1"/>
+    <col min="3" max="4" width="23.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,143 +403,267 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>350053612061205</v>
-      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>351251781555747</v>
       </c>
       <c r="C2" s="2">
         <v>357559441321522</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1">
         <v>350954042139687</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>350053612166624</v>
-      </c>
+      <c r="F2" s="1">
+        <v>350954041383641</v>
+      </c>
+      <c r="G2" s="1">
+        <v>357656105458382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>351251781055581</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1">
+      <c r="C3" s="2">
+        <v>354340119388108</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1">
         <v>350954042139489</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>350954041383740</v>
+      </c>
+      <c r="G3" s="1">
+        <v>357656105369043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>351251781556588</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>354340119399881</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="1">
+        <v>350954041382767</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>351251781556786</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>354340118737701</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="1">
+        <v>350954041382908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>351251781247642</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>354340119388009</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" s="1">
+        <v>350954041957022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>351251781247600</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>354340119388066</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="1">
+        <v>350954041957543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>351251781332766</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>354340119400044</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="1">
+        <v>350954041957667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>351251781055722</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>354340119388223</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" s="1">
+        <v>350954041957444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>351251781055680</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>354340118983727</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="F10" s="1">
+        <v>350954041954102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>351251781024686</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>354340118890328</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" s="1">
+        <v>350954041951843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>351251781247584</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>354340119324681</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="1">
+        <v>350954041954060</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>351251781557321</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>354340119341842</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" s="1">
+        <v>350954041952049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>351251781556927</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>354340118758145</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" s="1">
+        <v>350954041954185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>351251781556885</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>354340118820127</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>351251781556562</v>
       </c>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>351251781753946</v>
       </c>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>351251781333129</v>
       </c>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>351251781333087</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>351251781358365</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>351251781556661</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>351251781333020</v>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>351251781247006</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>351251781246982</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>351251781246925</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>351251781246941</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>351251781247121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>351251781247022</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>351251781247063</v>
       </c>
     </row>
   </sheetData>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>L140</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>B68</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,11 +391,11 @@
     <col min="3" max="4" width="23.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.140625" style="1"/>
+    <col min="7" max="8" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +417,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>351251781555747</v>
       </c>
@@ -432,8 +438,11 @@
       <c r="G2" s="1">
         <v>357656105458382</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>357330672691789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>351251781055581</v>
       </c>
@@ -451,7 +460,7 @@
         <v>357656105369043</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>351251781556588</v>
       </c>
@@ -459,6 +468,9 @@
         <v>354340119399881</v>
       </c>
       <c r="D4" s="2"/>
+      <c r="E4" s="1">
+        <v>350954041010889</v>
+      </c>
       <c r="F4" s="1">
         <v>350954041382767</v>
       </c>
@@ -466,7 +478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>351251781556786</v>
       </c>
@@ -478,7 +490,7 @@
         <v>350954041382908</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>351251781247642</v>
       </c>
@@ -490,7 +502,7 @@
         <v>350954041957022</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>351251781247600</v>
       </c>
@@ -502,7 +514,7 @@
         <v>350954041957543</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>351251781332766</v>
       </c>
@@ -514,7 +526,7 @@
         <v>350954041957667</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>351251781055722</v>
       </c>
@@ -526,7 +538,7 @@
         <v>350954041957444</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>351251781055680</v>
       </c>
@@ -538,7 +550,7 @@
         <v>350954041954102</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>351251781024686</v>
       </c>
@@ -550,7 +562,7 @@
         <v>350954041951843</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>351251781247584</v>
       </c>
@@ -562,7 +574,7 @@
         <v>350954041954060</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>351251781557321</v>
       </c>
@@ -574,28 +586,24 @@
         <v>350954041952049</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>351251781556927</v>
       </c>
-      <c r="C14" s="2">
-        <v>354340118758145</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="1">
         <v>350954041954185</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>351251781556885</v>
       </c>
-      <c r="C15" s="2">
-        <v>354340118820127</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>351251781556562</v>
       </c>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +422,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>351251781408889</v>
+      </c>
       <c r="B2" s="1">
         <v>351251781555747</v>
       </c>
@@ -429,9 +432,6 @@
         <v>357559441321522</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="1">
-        <v>350954042139687</v>
-      </c>
       <c r="F2" s="1">
         <v>350954041383641</v>
       </c>
@@ -450,9 +450,6 @@
         <v>354340119388108</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="1">
-        <v>350954042139489</v>
-      </c>
       <c r="F3" s="1">
         <v>350954041383740</v>
       </c>
@@ -468,9 +465,6 @@
         <v>354340119399881</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="1">
-        <v>350954041010889</v>
-      </c>
       <c r="F4" s="1">
         <v>350954041382767</v>
       </c>
@@ -602,6 +596,9 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
+      <c r="F15" s="1">
+        <v>351251781408889</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
@@ -609,67 +606,76 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>350954042139687</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>351251781753946</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>350954042139489</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>351251781333129</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>350954041010889</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>351251781333087</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>351251781358365</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>351251781556661</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>351251781247006</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>351251781246982</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>351251781246925</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>351251781246941</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>351251781247121</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>351251781247022</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>351251781247063</v>
       </c>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,6 +680,16 @@
         <v>351251781247063</v>
       </c>
     </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>351251781718485</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>351251781765882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,9 +422,6 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>351251781408889</v>
-      </c>
       <c r="B2" s="1">
         <v>351251781555747</v>
       </c>
@@ -688,6 +685,71 @@
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>351251781765882</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>351251781275387</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>351251781275429</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>351251781275486</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>351251781275460</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>351251781275502</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>351251781247089</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>351251781247048</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>351251781787365</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>351251781785047</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>351251781660786</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>351251781660703</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>351251781661388</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>351251781171289</v>
       </c>
     </row>
   </sheetData>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,9 @@
       <c r="B14" s="1">
         <v>351251781556927</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>354340115248801</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="F14" s="1">
         <v>350954041954185</v>
@@ -591,7 +593,9 @@
       <c r="B15" s="1">
         <v>351251781556885</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>354340118917444</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="F15" s="1">
         <v>351251781408889</v>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +422,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>350053612055140</v>
+      </c>
       <c r="B2" s="1">
         <v>351251781555747</v>
       </c>
@@ -440,6 +443,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>350053612061148</v>
+      </c>
       <c r="B3" s="1">
         <v>351251781055581</v>
       </c>
@@ -455,6 +461,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>350053612306162</v>
+      </c>
       <c r="B4" s="1">
         <v>351251781556588</v>
       </c>
@@ -470,6 +479,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>350053610466224</v>
+      </c>
       <c r="B5" s="1">
         <v>351251781556786</v>
       </c>
@@ -482,6 +494,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>350053612136965</v>
+      </c>
       <c r="B6" s="1">
         <v>351251781247642</v>
       </c>
@@ -494,6 +509,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>350053611233029</v>
+      </c>
       <c r="B7" s="1">
         <v>351251781247600</v>
       </c>
@@ -506,6 +524,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>350053612137187</v>
+      </c>
       <c r="B8" s="1">
         <v>351251781332766</v>
       </c>
@@ -518,6 +539,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>350053612130968</v>
+      </c>
       <c r="B9" s="1">
         <v>351251781055722</v>
       </c>
@@ -699,61 +723,6 @@
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>351251781275429</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <v>351251781275486</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <v>351251781275460</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <v>351251781275502</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <v>351251781247089</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>351251781247048</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <v>351251781787365</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>351251781785047</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
-        <v>351251781660786</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <v>351251781660703</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <v>351251781661388</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <v>351251781171289</v>
       </c>
     </row>
   </sheetData>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +554,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>350053612137104</v>
+      </c>
       <c r="B10" s="1">
         <v>351251781055680</v>
       </c>
@@ -566,6 +569,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>350053612131081</v>
+      </c>
       <c r="B11" s="1">
         <v>351251781024686</v>
       </c>
@@ -698,31 +704,6 @@
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>351251781247022</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>351251781247063</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>351251781718485</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>351251781765882</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>351251781275387</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>351251781275429</v>
       </c>
     </row>
   </sheetData>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,10 +428,8 @@
       <c r="B2" s="1">
         <v>351251781555747</v>
       </c>
-      <c r="C2" s="2">
-        <v>357559441321522</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="F2" s="1">
         <v>350954041383641</v>
       </c>
@@ -449,9 +447,7 @@
       <c r="B3" s="1">
         <v>351251781055581</v>
       </c>
-      <c r="C3" s="2">
-        <v>354340119388108</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="1">
         <v>350954041383740</v>
@@ -467,9 +463,7 @@
       <c r="B4" s="1">
         <v>351251781556588</v>
       </c>
-      <c r="C4" s="2">
-        <v>354340119399881</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="1">
         <v>350954041382767</v>
@@ -485,9 +479,7 @@
       <c r="B5" s="1">
         <v>351251781556786</v>
       </c>
-      <c r="C5" s="2">
-        <v>354340118737701</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="1">
         <v>350954041382908</v>
@@ -500,9 +492,7 @@
       <c r="B6" s="1">
         <v>351251781247642</v>
       </c>
-      <c r="C6" s="2">
-        <v>354340119388009</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="1">
         <v>350954041957022</v>
@@ -515,9 +505,7 @@
       <c r="B7" s="1">
         <v>351251781247600</v>
       </c>
-      <c r="C7" s="2">
-        <v>354340119388066</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="1">
         <v>350954041957543</v>
@@ -530,9 +518,7 @@
       <c r="B8" s="1">
         <v>351251781332766</v>
       </c>
-      <c r="C8" s="2">
-        <v>354340119400044</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="1">
         <v>350954041957667</v>
@@ -545,9 +531,7 @@
       <c r="B9" s="1">
         <v>351251781055722</v>
       </c>
-      <c r="C9" s="2">
-        <v>354340119388223</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="1">
         <v>350954041957444</v>
@@ -560,9 +544,7 @@
       <c r="B10" s="1">
         <v>351251781055680</v>
       </c>
-      <c r="C10" s="2">
-        <v>354340118983727</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="1">
         <v>350954041954102</v>
@@ -575,9 +557,7 @@
       <c r="B11" s="1">
         <v>351251781024686</v>
       </c>
-      <c r="C11" s="2">
-        <v>354340118890328</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="1">
         <v>350954041951843</v>
@@ -587,9 +567,7 @@
       <c r="B12" s="1">
         <v>351251781247584</v>
       </c>
-      <c r="C12" s="2">
-        <v>354340119324681</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="1">
         <v>350954041954060</v>
@@ -599,9 +577,7 @@
       <c r="B13" s="1">
         <v>351251781557321</v>
       </c>
-      <c r="C13" s="2">
-        <v>354340119341842</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="1">
         <v>350954041952049</v>
@@ -611,9 +587,7 @@
       <c r="B14" s="1">
         <v>351251781556927</v>
       </c>
-      <c r="C14" s="2">
-        <v>354340115248801</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="1">
         <v>350954041954185</v>
@@ -623,9 +597,7 @@
       <c r="B15" s="1">
         <v>351251781556885</v>
       </c>
-      <c r="C15" s="2">
-        <v>354340118917444</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="1">
         <v>351251781408889</v>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,16 +428,15 @@
       <c r="B2" s="1">
         <v>351251781555747</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>354340118950908</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="F2" s="1">
         <v>350954041383641</v>
       </c>
       <c r="G2" s="1">
         <v>357656105458382</v>
-      </c>
-      <c r="H2" s="1">
-        <v>357330672691789</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -36,9 +36,6 @@
     <t>D47_SKD</t>
   </si>
   <si>
-    <t>BL120_Skd</t>
-  </si>
-  <si>
     <t>bl96</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>B68</t>
+  </si>
+  <si>
+    <t>B68_WP</t>
   </si>
 </sst>
 </file>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -415,10 +415,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -447,7 +447,9 @@
         <v>351251781055581</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>357330673222006</v>
+      </c>
       <c r="F3" s="1">
         <v>350954041383740</v>
       </c>
@@ -463,12 +465,14 @@
         <v>351251781556588</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>357330673221248</v>
+      </c>
       <c r="F4" s="1">
         <v>350954041382767</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -479,7 +483,9 @@
         <v>351251781556786</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>357330673241568</v>
+      </c>
       <c r="F5" s="1">
         <v>350954041382908</v>
       </c>
@@ -492,7 +498,9 @@
         <v>351251781247642</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>357330673253100</v>
+      </c>
       <c r="F6" s="1">
         <v>350954041957022</v>
       </c>
@@ -505,7 +513,9 @@
         <v>351251781247600</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>357330673257564</v>
+      </c>
       <c r="F7" s="1">
         <v>350954041957543</v>
       </c>
@@ -518,7 +528,9 @@
         <v>351251781332766</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>357330673247268</v>
+      </c>
       <c r="F8" s="1">
         <v>350954041957667</v>
       </c>
@@ -531,7 +543,9 @@
         <v>351251781055722</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>357330673231569</v>
+      </c>
       <c r="F9" s="1">
         <v>350954041957444</v>
       </c>
@@ -544,7 +558,9 @@
         <v>351251781055680</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>357330673221263</v>
+      </c>
       <c r="F10" s="1">
         <v>350954041954102</v>
       </c>
@@ -670,11 +686,6 @@
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>351251781247121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>351251781247022</v>
       </c>
     </row>
   </sheetData>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>357330673231569</v>
+        <v>357330673247383</v>
       </c>
       <c r="F9" s="1">
         <v>350954041957444</v>
@@ -559,7 +559,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>357330673221263</v>
+        <v>357330673241204</v>
       </c>
       <c r="F10" s="1">
         <v>350954041954102</v>
@@ -573,17 +573,24 @@
         <v>351251781024686</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>357330673239646</v>
+      </c>
       <c r="F11" s="1">
         <v>350954041951843</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>350053612055223</v>
+      </c>
       <c r="B12" s="1">
         <v>351251781247584</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>357330673221404</v>
+      </c>
       <c r="F12" s="1">
         <v>350954041954060</v>
       </c>
@@ -593,7 +600,9 @@
         <v>351251781557321</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>357330673222402</v>
+      </c>
       <c r="F13" s="1">
         <v>350954041952049</v>
       </c>
@@ -603,7 +612,9 @@
         <v>351251781556927</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>357330673231460</v>
+      </c>
       <c r="F14" s="1">
         <v>350954041954185</v>
       </c>
@@ -613,7 +624,9 @@
         <v>351251781556885</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>357330673248084</v>
+      </c>
       <c r="F15" s="1">
         <v>351251781408889</v>
       </c>
@@ -623,7 +636,9 @@
         <v>351251781556562</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>357330673246989</v>
+      </c>
       <c r="F16" s="1">
         <v>350954042139687</v>
       </c>
@@ -633,7 +648,9 @@
         <v>351251781753946</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>357330673247144</v>
+      </c>
       <c r="F17" s="1">
         <v>350954042139489</v>
       </c>
@@ -671,21 +688,6 @@
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>351251781246982</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>351251781246925</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>351251781246941</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>351251781247121</v>
       </c>
     </row>
   </sheetData>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -42,10 +42,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>B68</t>
-  </si>
-  <si>
     <t>B68_WP</t>
+  </si>
+  <si>
+    <t>B68_SKD</t>
   </si>
 </sst>
 </file>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -418,7 +418,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -438,6 +438,9 @@
       <c r="G2" s="1">
         <v>357656105458382</v>
       </c>
+      <c r="H2" s="1">
+        <v>357330672751781</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -446,7 +449,9 @@
       <c r="B3" s="1">
         <v>351251781055581</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>354340118331323</v>
+      </c>
       <c r="D3" s="2">
         <v>357330673222006</v>
       </c>
@@ -455,6 +460,9 @@
       </c>
       <c r="G3" s="1">
         <v>357656105369043</v>
+      </c>
+      <c r="H3" s="1">
+        <v>357330672718046</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -464,7 +472,9 @@
       <c r="B4" s="1">
         <v>351251781556588</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>354340119338889</v>
+      </c>
       <c r="D4" s="2">
         <v>357330673221248</v>
       </c>
@@ -473,6 +483,9 @@
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>357330672715604</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -482,12 +495,17 @@
       <c r="B5" s="1">
         <v>351251781556786</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>354340119125948</v>
+      </c>
       <c r="D5" s="2">
         <v>357330673241568</v>
       </c>
       <c r="F5" s="1">
         <v>350954041382908</v>
+      </c>
+      <c r="H5" s="1">
+        <v>357330672717980</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,6 +614,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>350053612353685</v>
+      </c>
       <c r="B13" s="1">
         <v>351251781557321</v>
       </c>
@@ -608,13 +629,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>350053612110341</v>
+      </c>
       <c r="B14" s="1">
         <v>351251781556927</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>357330673231460</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="F14" s="1">
         <v>350954041954185</v>
       </c>
@@ -624,9 +646,7 @@
         <v>351251781556885</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>357330673248084</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="F15" s="1">
         <v>351251781408889</v>
       </c>
@@ -636,9 +656,7 @@
         <v>351251781556562</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>357330673246989</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="F16" s="1">
         <v>350954042139687</v>
       </c>
@@ -648,9 +666,7 @@
         <v>351251781753946</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>357330673247144</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="F17" s="1">
         <v>350954042139489</v>
       </c>
@@ -681,14 +697,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>351251781247006</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>351251781246982</v>
-      </c>
+      <c r="B22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/Symphony/2021/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,9 +452,7 @@
       <c r="C3" s="2">
         <v>354340118331323</v>
       </c>
-      <c r="D3" s="2">
-        <v>357330673222006</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="F3" s="1">
         <v>350954041383740</v>
       </c>
@@ -475,9 +473,7 @@
       <c r="C4" s="2">
         <v>354340119338889</v>
       </c>
-      <c r="D4" s="2">
-        <v>357330673221248</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="F4" s="1">
         <v>350954041382767</v>
       </c>
@@ -498,9 +494,7 @@
       <c r="C5" s="2">
         <v>354340119125948</v>
       </c>
-      <c r="D5" s="2">
-        <v>357330673241568</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="F5" s="1">
         <v>350954041382908</v>
       </c>
@@ -516,11 +510,12 @@
         <v>351251781247642</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>357330673253100</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="F6" s="1">
         <v>350954041957022</v>
+      </c>
+      <c r="H6" s="1">
+        <v>357330672642766</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -531,11 +526,12 @@
         <v>351251781247600</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>357330673257564</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="F7" s="1">
         <v>350954041957543</v>
+      </c>
+      <c r="H7" s="1">
+        <v>357330672596269</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -546,11 +542,12 @@
         <v>351251781332766</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>357330673247268</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="F8" s="1">
         <v>350954041957667</v>
+      </c>
+      <c r="H8" s="1">
+        <v>357330672636248</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -561,9 +558,7 @@
         <v>351251781055722</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>357330673247383</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="F9" s="1">
         <v>350954041957444</v>
       </c>
@@ -576,9 +571,7 @@
         <v>351251781055680</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>357330673241204</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="F10" s="1">
         <v>350954041954102</v>
       </c>
@@ -591,9 +584,7 @@
         <v>351251781024686</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>357330673239646</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="F11" s="1">
         <v>350954041951843</v>
       </c>
@@ -606,9 +597,7 @@
         <v>351251781247584</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>357330673221404</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="F12" s="1">
         <v>350954041954060</v>
       </c>
@@ -621,9 +610,7 @@
         <v>351251781557321</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>357330673222402</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="F13" s="1">
         <v>350954041952049</v>
       </c>
@@ -631,9 +618,6 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>350053612110341</v>
-      </c>
-      <c r="B14" s="1">
-        <v>351251781556927</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -642,9 +626,6 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>351251781556885</v>
-      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="1">
@@ -652,9 +633,6 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>351251781556562</v>
-      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="1">
@@ -662,9 +640,6 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>351251781753946</v>
-      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="1">
@@ -672,28 +647,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>351251781333129</v>
-      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="1">
         <v>350954041010889</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>351251781333087</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>351251781358365</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>351251781556661</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
